--- a/7/1/1/2/PIB total 2013 a 2021 - Anual.xlsx
+++ b/7/1/1/2/PIB total 2013 a 2021 - Anual.xlsx
@@ -438,7 +438,7 @@
         <v>137876</v>
       </c>
       <c r="D2">
-        <v>137939</v>
+        <v>137929</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -452,7 +452,7 @@
         <v>140312</v>
       </c>
       <c r="D3">
-        <v>140318</v>
+        <v>140306</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -466,7 +466,7 @@
         <v>143545</v>
       </c>
       <c r="D4">
-        <v>143488</v>
+        <v>143475</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -480,7 +480,7 @@
         <v>146001</v>
       </c>
       <c r="D5">
-        <v>145816</v>
+        <v>145801</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -494,7 +494,7 @@
         <v>147730</v>
       </c>
       <c r="D6">
-        <v>147867</v>
+        <v>147852</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -508,7 +508,7 @@
         <v>153217</v>
       </c>
       <c r="D7">
-        <v>153434</v>
+        <v>153419</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -522,7 +522,7 @@
         <v>154660</v>
       </c>
       <c r="D8">
-        <v>154780</v>
+        <v>154766</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -536,7 +536,7 @@
         <v>145734</v>
       </c>
       <c r="D9">
-        <v>145517</v>
+        <v>145498</v>
       </c>
     </row>
   </sheetData>
